--- a/训练中心创客交叉融合空间建设/admin/信息化设备采购.xlsx
+++ b/训练中心创客交叉融合空间建设/admin/信息化设备采购.xlsx
@@ -465,7 +465,7 @@
   <dimension ref="B2:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
